--- a/academias/Matemáticas - Estadisticos 20211.xlsx
+++ b/academias/Matemáticas - Estadisticos 20211.xlsx
@@ -702,22 +702,25 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>77.27</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>22.73</v>
+      </c>
+      <c r="I5">
+        <v>6.9</v>
       </c>
       <c r="J5">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -734,22 +737,25 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>12.9</v>
+      </c>
+      <c r="I6">
+        <v>8.5</v>
       </c>
       <c r="J6">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -766,22 +772,25 @@
         <v>38</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>57.89</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>42.11</v>
+      </c>
+      <c r="I7">
+        <v>8.4</v>
       </c>
       <c r="J7">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -798,22 +807,25 @@
         <v>35</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>31.43</v>
+      </c>
+      <c r="I8">
+        <v>7.9</v>
       </c>
       <c r="J8">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -830,22 +842,25 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>63.64</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>36.36</v>
+      </c>
+      <c r="I9">
+        <v>7.8</v>
       </c>
       <c r="J9">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -967,25 +982,25 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>87.5</v>
+        <v>91.67</v>
       </c>
       <c r="H13">
-        <v>12.5</v>
+        <v>8.33</v>
       </c>
       <c r="I13">
         <v>6.7</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>12.5</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1002,22 +1017,25 @@
         <v>31</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>77.42</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>22.58</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1034,22 +1052,25 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>52.38</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>47.62</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1066,25 +1087,25 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>77.14</v>
+        <v>80</v>
       </c>
       <c r="H16">
-        <v>22.86</v>
+        <v>20</v>
       </c>
       <c r="I16">
         <v>8.6</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>22.86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1101,22 +1122,25 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>61.9</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>38.1</v>
+      </c>
+      <c r="I17">
+        <v>7.8</v>
       </c>
       <c r="J17">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1375,22 +1399,25 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F25">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>43.59</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>56.41</v>
+      </c>
+      <c r="I25">
+        <v>8.300000000000001</v>
       </c>
       <c r="J25">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K25">
-        <v>100</v>
+        <v>56.41</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1407,22 +1434,25 @@
         <v>35</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>57.14</v>
+      </c>
+      <c r="I26">
+        <v>8.1</v>
       </c>
       <c r="J26">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K26">
-        <v>100</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1439,22 +1469,25 @@
         <v>32</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F27">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>40.63</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>59.38</v>
+      </c>
+      <c r="I27">
+        <v>7.2</v>
       </c>
       <c r="J27">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K27">
-        <v>100</v>
+        <v>59.38</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1471,22 +1504,25 @@
         <v>43</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F28">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>67.44</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>32.56</v>
+      </c>
+      <c r="I28">
+        <v>7.4</v>
       </c>
       <c r="J28">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>32.56</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1503,22 +1539,25 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F29">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>68.97</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>31.03</v>
+      </c>
+      <c r="I29">
+        <v>7.7</v>
       </c>
       <c r="J29">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K29">
-        <v>100</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1535,22 +1574,25 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F30">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>70.59</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>29.41</v>
+      </c>
+      <c r="I30">
+        <v>7.6</v>
       </c>
       <c r="J30">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1567,22 +1609,25 @@
         <v>31</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F31">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>32.26</v>
+      </c>
+      <c r="I31">
+        <v>7.3</v>
       </c>
       <c r="J31">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1669,22 +1714,25 @@
         <v>33</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>63.64</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>36.36</v>
+      </c>
+      <c r="I34">
+        <v>6.6</v>
       </c>
       <c r="J34">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2966,22 +3014,25 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>77.27</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>22.73</v>
+      </c>
+      <c r="I5">
+        <v>6.9</v>
       </c>
       <c r="J5">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2998,22 +3049,25 @@
         <v>31</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>12.9</v>
+      </c>
+      <c r="I6">
+        <v>8.5</v>
       </c>
       <c r="J6">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>100</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -3030,22 +3084,25 @@
         <v>38</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>57.89</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>42.11</v>
+      </c>
+      <c r="I7">
+        <v>8.4</v>
       </c>
       <c r="J7">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>36.84</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -3062,22 +3119,25 @@
         <v>35</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>31.43</v>
+      </c>
+      <c r="I8">
+        <v>7.9</v>
       </c>
       <c r="J8">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -3094,22 +3154,25 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>63.64</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>36.36</v>
+      </c>
+      <c r="I9">
+        <v>7.8</v>
       </c>
       <c r="J9">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>100</v>
+        <v>27.27</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3231,25 +3294,25 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>87.5</v>
+        <v>91.67</v>
       </c>
       <c r="H13">
-        <v>12.5</v>
+        <v>8.33</v>
       </c>
       <c r="I13">
         <v>6.7</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>12.5</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -3266,22 +3329,25 @@
         <v>31</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F14">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>77.42</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>22.58</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
       </c>
       <c r="J14">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -3298,22 +3364,25 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>52.38</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>47.62</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
       </c>
       <c r="J15">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3330,25 +3399,25 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>77.14</v>
+        <v>80</v>
       </c>
       <c r="H16">
-        <v>22.86</v>
+        <v>20</v>
       </c>
       <c r="I16">
         <v>8.6</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>22.86</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3365,22 +3434,25 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>61.9</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>38.1</v>
+      </c>
+      <c r="I17">
+        <v>7.8</v>
       </c>
       <c r="J17">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3639,22 +3711,25 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F25">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>43.59</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>56.41</v>
+      </c>
+      <c r="I25">
+        <v>8.300000000000001</v>
       </c>
       <c r="J25">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="K25">
-        <v>100</v>
+        <v>56.41</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3671,22 +3746,25 @@
         <v>35</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>42.86</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>57.14</v>
+      </c>
+      <c r="I26">
+        <v>8.1</v>
       </c>
       <c r="J26">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K26">
-        <v>100</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3703,22 +3781,25 @@
         <v>32</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F27">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>40.63</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>59.38</v>
+      </c>
+      <c r="I27">
+        <v>7.2</v>
       </c>
       <c r="J27">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="K27">
-        <v>100</v>
+        <v>59.38</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3735,22 +3816,25 @@
         <v>43</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F28">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>67.44</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>32.56</v>
+      </c>
+      <c r="I28">
+        <v>7.4</v>
       </c>
       <c r="J28">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="K28">
-        <v>100</v>
+        <v>32.56</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -3767,22 +3851,25 @@
         <v>29</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F29">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>68.97</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>31.03</v>
+      </c>
+      <c r="I29">
+        <v>7.7</v>
       </c>
       <c r="J29">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K29">
-        <v>100</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -3799,22 +3886,25 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F30">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>70.59</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>29.41</v>
+      </c>
+      <c r="I30">
+        <v>7.6</v>
       </c>
       <c r="J30">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -3831,22 +3921,25 @@
         <v>31</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F31">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>67.73999999999999</v>
       </c>
       <c r="H31">
-        <v>100</v>
+        <v>32.26</v>
+      </c>
+      <c r="I31">
+        <v>7.3</v>
       </c>
       <c r="J31">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3933,22 +4026,25 @@
         <v>33</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F34">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>63.64</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>36.36</v>
+      </c>
+      <c r="I34">
+        <v>6.6</v>
       </c>
       <c r="J34">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Matemáticas - Estadisticos 20211.xlsx
+++ b/academias/Matemáticas - Estadisticos 20211.xlsx
@@ -594,28 +594,28 @@
         <v>52</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>23</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>58.97</v>
+        <v>57.5</v>
       </c>
       <c r="H2">
-        <v>41.03</v>
+        <v>42.5</v>
       </c>
       <c r="I2">
         <v>8.800000000000001</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2">
-        <v>41.03</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -664,28 +664,28 @@
         <v>52</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>77.78</v>
+        <v>66.67</v>
       </c>
       <c r="H4">
-        <v>22.22</v>
+        <v>33.33</v>
       </c>
       <c r="I4">
         <v>9.9</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>22.22</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -944,28 +944,28 @@
         <v>52</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>81.81999999999999</v>
+        <v>83.72</v>
       </c>
       <c r="H12">
-        <v>18.18</v>
+        <v>16.28</v>
       </c>
       <c r="I12">
         <v>6.8</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12">
-        <v>18.18</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1087,25 +1087,25 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>80</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>14.29</v>
       </c>
       <c r="I16">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1122,25 +1122,25 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>61.9</v>
+        <v>66.67</v>
       </c>
       <c r="H17">
-        <v>38.1</v>
+        <v>33.33</v>
       </c>
       <c r="I17">
         <v>7.8</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K17">
-        <v>38.1</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1364,25 +1364,28 @@
         <v>54</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>19.44</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>80.56</v>
+      </c>
+      <c r="I24">
+        <v>7.4</v>
       </c>
       <c r="J24">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>80.56</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1431,28 +1434,28 @@
         <v>54</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>15</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26">
-        <v>42.86</v>
+        <v>41.67</v>
       </c>
       <c r="H26">
-        <v>57.14</v>
+        <v>58.33</v>
       </c>
       <c r="I26">
         <v>8.1</v>
       </c>
       <c r="J26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K26">
-        <v>57.14</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1641,28 +1644,28 @@
         <v>54</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>18</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I32">
         <v>7</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1676,28 +1679,28 @@
         <v>54</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>24</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33">
-        <v>70.59</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="H33">
-        <v>29.41</v>
+        <v>31.43</v>
       </c>
       <c r="I33">
         <v>7.1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1798,13 +1801,13 @@
         <v>52</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1813,7 +1816,7 @@
         <v>100</v>
       </c>
       <c r="J2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2">
         <v>100</v>
@@ -1862,13 +1865,13 @@
         <v>52</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1877,7 +1880,7 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -2118,13 +2121,13 @@
         <v>52</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2133,7 +2136,7 @@
         <v>100</v>
       </c>
       <c r="J12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>100</v>
@@ -2502,13 +2505,13 @@
         <v>54</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2517,7 +2520,7 @@
         <v>100</v>
       </c>
       <c r="J24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24">
         <v>100</v>
@@ -2566,13 +2569,13 @@
         <v>54</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2581,7 +2584,7 @@
         <v>100</v>
       </c>
       <c r="J26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K26">
         <v>100</v>
@@ -2758,13 +2761,13 @@
         <v>54</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2773,7 +2776,7 @@
         <v>100</v>
       </c>
       <c r="J32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K32">
         <v>100</v>
@@ -2790,13 +2793,13 @@
         <v>54</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2805,7 +2808,7 @@
         <v>100</v>
       </c>
       <c r="J33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K33">
         <v>100</v>
@@ -2906,28 +2909,28 @@
         <v>52</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>23</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>58.97</v>
+        <v>57.5</v>
       </c>
       <c r="H2">
-        <v>41.03</v>
+        <v>42.5</v>
       </c>
       <c r="I2">
         <v>8.800000000000001</v>
       </c>
       <c r="J2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K2">
-        <v>41.03</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2976,28 +2979,28 @@
         <v>52</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>77.78</v>
+        <v>66.67</v>
       </c>
       <c r="H4">
-        <v>22.22</v>
+        <v>33.33</v>
       </c>
       <c r="I4">
         <v>9.9</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>22.22</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3256,28 +3259,28 @@
         <v>52</v>
       </c>
       <c r="D12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>81.81999999999999</v>
+        <v>83.72</v>
       </c>
       <c r="H12">
-        <v>18.18</v>
+        <v>16.28</v>
       </c>
       <c r="I12">
         <v>6.8</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K12">
-        <v>18.18</v>
+        <v>16.28</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -3399,25 +3402,25 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>80</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>14.29</v>
       </c>
       <c r="I16">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K16">
-        <v>20</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3434,25 +3437,25 @@
         <v>21</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>61.9</v>
+        <v>66.67</v>
       </c>
       <c r="H17">
-        <v>38.1</v>
+        <v>33.33</v>
       </c>
       <c r="I17">
         <v>7.8</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K17">
-        <v>38.1</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -3676,25 +3679,28 @@
         <v>54</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>19.44</v>
       </c>
       <c r="H24">
-        <v>100</v>
+        <v>80.56</v>
+      </c>
+      <c r="I24">
+        <v>7.4</v>
       </c>
       <c r="J24">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K24">
-        <v>100</v>
+        <v>80.56</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3743,28 +3749,28 @@
         <v>54</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26">
         <v>15</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G26">
-        <v>42.86</v>
+        <v>41.67</v>
       </c>
       <c r="H26">
-        <v>57.14</v>
+        <v>58.33</v>
       </c>
       <c r="I26">
         <v>8.1</v>
       </c>
       <c r="J26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K26">
-        <v>57.14</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3953,28 +3959,28 @@
         <v>54</v>
       </c>
       <c r="D32">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>18</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I32">
         <v>7</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3988,28 +3994,28 @@
         <v>54</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>24</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G33">
-        <v>70.59</v>
+        <v>68.56999999999999</v>
       </c>
       <c r="H33">
-        <v>29.41</v>
+        <v>31.43</v>
       </c>
       <c r="I33">
         <v>7.1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="34" spans="1:11">

--- a/academias/Matemáticas - Estadisticos 20211.xlsx
+++ b/academias/Matemáticas - Estadisticos 20211.xlsx
@@ -1052,25 +1052,25 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>52.38</v>
+        <v>57.14</v>
       </c>
       <c r="H15">
-        <v>47.62</v>
+        <v>42.86</v>
       </c>
       <c r="I15">
         <v>8</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K15">
-        <v>47.62</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1087,25 +1087,25 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>85.70999999999999</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="H16">
-        <v>14.29</v>
+        <v>11.43</v>
       </c>
       <c r="I16">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>14.29</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1367,25 +1367,25 @@
         <v>36</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G24">
-        <v>19.44</v>
+        <v>33.33</v>
       </c>
       <c r="H24">
-        <v>80.56</v>
+        <v>66.67</v>
       </c>
       <c r="I24">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="J24">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K24">
-        <v>80.56</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1402,25 +1402,25 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F25">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>43.59</v>
+        <v>69.23</v>
       </c>
       <c r="H25">
-        <v>56.41</v>
+        <v>30.77</v>
       </c>
       <c r="I25">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="J25">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K25">
-        <v>56.41</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1437,25 +1437,25 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F26">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G26">
-        <v>41.67</v>
+        <v>52.78</v>
       </c>
       <c r="H26">
-        <v>58.33</v>
+        <v>47.22</v>
       </c>
       <c r="I26">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="J26">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K26">
-        <v>58.33</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1472,25 +1472,25 @@
         <v>32</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F27">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>40.63</v>
+        <v>53.13</v>
       </c>
       <c r="H27">
-        <v>59.38</v>
+        <v>46.88</v>
       </c>
       <c r="I27">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J27">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K27">
-        <v>59.38</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -3367,25 +3367,25 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>52.38</v>
+        <v>57.14</v>
       </c>
       <c r="H15">
-        <v>47.62</v>
+        <v>42.86</v>
       </c>
       <c r="I15">
         <v>8</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K15">
-        <v>47.62</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3402,25 +3402,25 @@
         <v>35</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>85.70999999999999</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="H16">
-        <v>14.29</v>
+        <v>11.43</v>
       </c>
       <c r="I16">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>14.29</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -3682,25 +3682,25 @@
         <v>36</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G24">
-        <v>19.44</v>
+        <v>33.33</v>
       </c>
       <c r="H24">
-        <v>80.56</v>
+        <v>66.67</v>
       </c>
       <c r="I24">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="J24">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K24">
-        <v>80.56</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -3717,25 +3717,25 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F25">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G25">
-        <v>43.59</v>
+        <v>69.23</v>
       </c>
       <c r="H25">
-        <v>56.41</v>
+        <v>30.77</v>
       </c>
       <c r="I25">
-        <v>8.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="J25">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="K25">
-        <v>56.41</v>
+        <v>30.77</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -3752,25 +3752,25 @@
         <v>36</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F26">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G26">
-        <v>41.67</v>
+        <v>52.78</v>
       </c>
       <c r="H26">
-        <v>58.33</v>
+        <v>47.22</v>
       </c>
       <c r="I26">
-        <v>8.1</v>
+        <v>7.7</v>
       </c>
       <c r="J26">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K26">
-        <v>58.33</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -3787,25 +3787,25 @@
         <v>32</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F27">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>40.63</v>
+        <v>53.13</v>
       </c>
       <c r="H27">
-        <v>59.38</v>
+        <v>46.88</v>
       </c>
       <c r="I27">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="J27">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K27">
-        <v>59.38</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="28" spans="1:11">
